--- a/app/public/インボイス-パッキングリスト-取引先用.xlsx
+++ b/app/public/インボイス-パッキングリスト-取引先用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\masuda-vinyl-ops\app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6809844-1263-4DAF-8896-36C2AB4E169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2292F546-58FB-4300-8B23-A6A622ECBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12912" yWindow="-24276" windowWidth="21600" windowHeight="20196" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="1" r:id="rId1"/>
@@ -1402,34 +1402,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="27">
+  <numFmts count="26">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0\ \ \ &quot; pcs/Box&quot;"/>
-    <numFmt numFmtId="178" formatCode="0.00\ &quot;kg&quot;"/>
-    <numFmt numFmtId="179" formatCode="0.0\ &quot;g&quot;"/>
-    <numFmt numFmtId="180" formatCode="000"/>
-    <numFmt numFmtId="181" formatCode="0\ \ \ "/>
-    <numFmt numFmtId="182" formatCode="0.0\ &quot;kg/巻&quot;"/>
-    <numFmt numFmtId="183" formatCode="0.0\ &quot;kg&quot;"/>
-    <numFmt numFmtId="184" formatCode="0\ \ \ &quot;m&quot;"/>
-    <numFmt numFmtId="185" formatCode="0\ \ \ &quot;pcs&quot;"/>
-    <numFmt numFmtId="186" formatCode="0\ \ &quot;Boxs&quot;"/>
-    <numFmt numFmtId="187" formatCode="0\ \ \ &quot;Pallets&quot;"/>
-    <numFmt numFmtId="188" formatCode="0\ \ &quot;kg&quot;"/>
-    <numFmt numFmtId="189" formatCode="0\ \ &quot;pcs&quot;\ \ "/>
-    <numFmt numFmtId="190" formatCode="0\ \ &quot;mm&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.0\ \ &quot;kg&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00\ \ &quot;kg&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.0_ "/>
-    <numFmt numFmtId="194" formatCode="0.00\ &quot;g&quot;"/>
-    <numFmt numFmtId="195" formatCode="0.00\ &quot;CBM&quot;"/>
-    <numFmt numFmtId="196" formatCode="0\ &quot;Pallets&quot;"/>
-    <numFmt numFmtId="197" formatCode="0.000"/>
-    <numFmt numFmtId="198" formatCode="0.00\ \ "/>
-    <numFmt numFmtId="199" formatCode="&quot;$&quot;\ 0.00"/>
-    <numFmt numFmtId="200" formatCode="0\ &quot;pcs/Box&quot;"/>
-    <numFmt numFmtId="201" formatCode="0\ &quot;Box&quot;"/>
-    <numFmt numFmtId="202" formatCode="0\ &quot;本迄&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00\ &quot;kg&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.0\ &quot;g&quot;"/>
+    <numFmt numFmtId="179" formatCode="000"/>
+    <numFmt numFmtId="180" formatCode="0\ \ \ "/>
+    <numFmt numFmtId="181" formatCode="0.0\ &quot;kg/巻&quot;"/>
+    <numFmt numFmtId="182" formatCode="0.0\ &quot;kg&quot;"/>
+    <numFmt numFmtId="183" formatCode="0\ \ \ &quot;m&quot;"/>
+    <numFmt numFmtId="184" formatCode="0\ \ \ &quot;pcs&quot;"/>
+    <numFmt numFmtId="185" formatCode="0\ \ &quot;Boxs&quot;"/>
+    <numFmt numFmtId="186" formatCode="0\ \ \ &quot;Pallets&quot;"/>
+    <numFmt numFmtId="187" formatCode="0\ \ &quot;kg&quot;"/>
+    <numFmt numFmtId="188" formatCode="0\ \ &quot;pcs&quot;\ \ "/>
+    <numFmt numFmtId="189" formatCode="0\ \ &quot;mm&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.0\ \ &quot;kg&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00\ \ &quot;kg&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.0_ "/>
+    <numFmt numFmtId="193" formatCode="0.00\ &quot;g&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.00\ &quot;CBM&quot;"/>
+    <numFmt numFmtId="195" formatCode="0\ &quot;Pallets&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.000"/>
+    <numFmt numFmtId="197" formatCode="0.00\ \ "/>
+    <numFmt numFmtId="198" formatCode="&quot;$&quot;\ 0.00"/>
+    <numFmt numFmtId="199" formatCode="0\ &quot;pcs/Box&quot;"/>
+    <numFmt numFmtId="200" formatCode="0\ &quot;Box&quot;"/>
+    <numFmt numFmtId="201" formatCode="0\ &quot;本迄&quot;"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -2391,7 +2390,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2449,13 +2448,13 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2491,7 +2490,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="192" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
@@ -2500,16 +2499,16 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
@@ -2554,7 +2553,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2671,34 +2670,34 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="distributed"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2707,28 +2706,28 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="192" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="181" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="190" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2743,12 +2742,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2756,7 +2749,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="197" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="196" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2789,51 +2782,51 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="199" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="199" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="200" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="201" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="40" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="40" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="40" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="40" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="199" fontId="40" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="40" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2842,10 +2835,10 @@
     <xf numFmtId="3" fontId="25" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="199" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="199" fontId="25" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="25" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2864,13 +2857,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="200" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2883,19 +2876,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="200" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="202" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="201" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2907,13 +2900,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="199" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="25" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2934,6 +2927,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2961,10 +2960,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="12" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="12" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3201,10 +3200,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="14" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="14" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3327,7 +3326,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3339,34 +3338,28 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="14" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="14" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4207,7 +4200,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:K18"/>
+      <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5421,7 +5414,7 @@
   </sheetPr>
   <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H35" sqref="H35:I35"/>
     </sheetView>
   </sheetViews>
@@ -5591,7 +5584,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="300"/>
-      <c r="N11" s="123"/>
+      <c r="N11" s="121"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="66" t="s">
@@ -5609,7 +5602,7 @@
       <c r="K12" s="304"/>
       <c r="L12" s="302"/>
       <c r="M12" s="303"/>
-      <c r="N12" s="123"/>
+      <c r="N12" s="121"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="66" t="s">
@@ -5632,7 +5625,7 @@
         <v>INDONESIA</v>
       </c>
       <c r="M13" s="308"/>
-      <c r="N13" s="124"/>
+      <c r="N13" s="122"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="66" t="s">
@@ -5757,13 +5750,13 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="324" t="str">
+      <c r="A23" s="322" t="str">
         <f>INVOICE!A21</f>
         <v>TEL :62-21-8975220 ext : 252</v>
       </c>
-      <c r="B23" s="325"/>
-      <c r="C23" s="325"/>
-      <c r="D23" s="325"/>
+      <c r="B23" s="323"/>
+      <c r="C23" s="323"/>
+      <c r="D23" s="323"/>
       <c r="E23" s="82"/>
       <c r="F23" s="69"/>
       <c r="G23" s="69"/>
@@ -5790,10 +5783,10 @@
     <row r="25" spans="1:21" ht="12.75" customHeight="1">
       <c r="A25" s="83"/>
       <c r="B25" s="84"/>
-      <c r="C25" s="342"/>
-      <c r="D25" s="342"/>
-      <c r="E25" s="342"/>
-      <c r="F25" s="342"/>
+      <c r="C25" s="340"/>
+      <c r="D25" s="340"/>
+      <c r="E25" s="340"/>
+      <c r="F25" s="340"/>
       <c r="G25" s="74"/>
       <c r="H25" s="75"/>
       <c r="I25" s="113"/>
@@ -5803,16 +5796,16 @@
       <c r="M25" s="60"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="330" t="s">
+      <c r="A26" s="328" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="331"/>
-      <c r="C26" s="331"/>
-      <c r="D26" s="331"/>
-      <c r="E26" s="331"/>
-      <c r="F26" s="331"/>
-      <c r="G26" s="331"/>
-      <c r="H26" s="331"/>
+      <c r="B26" s="329"/>
+      <c r="C26" s="329"/>
+      <c r="D26" s="329"/>
+      <c r="E26" s="329"/>
+      <c r="F26" s="329"/>
+      <c r="G26" s="329"/>
+      <c r="H26" s="329"/>
       <c r="I26" s="113"/>
       <c r="J26" s="53" t="s">
         <v>64</v>
@@ -5820,45 +5813,45 @@
       <c r="M26" s="60"/>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1">
-      <c r="A27" s="332" t="s">
+      <c r="A27" s="330" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="333"/>
-      <c r="C27" s="333"/>
-      <c r="D27" s="333"/>
-      <c r="E27" s="333"/>
-      <c r="F27" s="333"/>
-      <c r="G27" s="333"/>
-      <c r="H27" s="333"/>
+      <c r="B27" s="331"/>
+      <c r="C27" s="331"/>
+      <c r="D27" s="331"/>
+      <c r="E27" s="331"/>
+      <c r="F27" s="331"/>
+      <c r="G27" s="331"/>
+      <c r="H27" s="331"/>
       <c r="I27" s="116"/>
       <c r="M27" s="60"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="334" t="s">
+      <c r="A28" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="335"/>
-      <c r="C28" s="335"/>
-      <c r="D28" s="335"/>
-      <c r="E28" s="335"/>
-      <c r="F28" s="335"/>
-      <c r="G28" s="335"/>
-      <c r="H28" s="336"/>
+      <c r="B28" s="333"/>
+      <c r="C28" s="333"/>
+      <c r="D28" s="333"/>
+      <c r="E28" s="333"/>
+      <c r="F28" s="333"/>
+      <c r="G28" s="333"/>
+      <c r="H28" s="334"/>
       <c r="I28" s="85"/>
       <c r="M28" s="60"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A29" s="326" t="str">
+      <c r="A29" s="324" t="str">
         <f>INVOICE!A27</f>
         <v>JAKARTA INDONESIA</v>
       </c>
-      <c r="B29" s="327"/>
-      <c r="C29" s="327"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="328"/>
+      <c r="B29" s="325"/>
+      <c r="C29" s="325"/>
+      <c r="D29" s="325"/>
+      <c r="E29" s="325"/>
+      <c r="F29" s="325"/>
+      <c r="G29" s="325"/>
+      <c r="H29" s="326"/>
       <c r="I29" s="86"/>
       <c r="J29" s="87"/>
       <c r="K29" s="87"/>
@@ -5893,13 +5886,13 @@
       <c r="F31" s="273" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="329" t="s">
+      <c r="G31" s="327" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="311" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="337"/>
+      <c r="I31" s="335"/>
       <c r="J31" s="295" t="s">
         <v>33</v>
       </c>
@@ -5912,18 +5905,18 @@
       <c r="M31" s="288" t="s">
         <v>36</v>
       </c>
-      <c r="R31" s="119"/>
+      <c r="R31" s="117"/>
     </row>
     <row r="32" spans="1:21" ht="9.75" customHeight="1">
       <c r="A32" s="292"/>
       <c r="B32" s="258"/>
       <c r="C32" s="258"/>
       <c r="D32" s="296"/>
-      <c r="E32" s="340"/>
+      <c r="E32" s="338"/>
       <c r="F32" s="274"/>
       <c r="G32" s="258"/>
-      <c r="H32" s="338"/>
-      <c r="I32" s="339"/>
+      <c r="H32" s="336"/>
+      <c r="I32" s="337"/>
       <c r="J32" s="296"/>
       <c r="K32" s="312"/>
       <c r="L32" s="306"/>
@@ -5942,11 +5935,11 @@
       <c r="B33" s="258"/>
       <c r="C33" s="258"/>
       <c r="D33" s="296"/>
-      <c r="E33" s="340"/>
+      <c r="E33" s="338"/>
       <c r="F33" s="274"/>
       <c r="G33" s="258"/>
-      <c r="H33" s="338"/>
-      <c r="I33" s="339"/>
+      <c r="H33" s="336"/>
+      <c r="I33" s="337"/>
       <c r="J33" s="296"/>
       <c r="K33" s="312"/>
       <c r="L33" s="306"/>
@@ -5965,11 +5958,11 @@
       <c r="B34" s="294"/>
       <c r="C34" s="294"/>
       <c r="D34" s="297"/>
-      <c r="E34" s="341"/>
+      <c r="E34" s="339"/>
       <c r="F34" s="275"/>
       <c r="G34" s="294"/>
-      <c r="H34" s="338"/>
-      <c r="I34" s="339"/>
+      <c r="H34" s="336"/>
+      <c r="I34" s="337"/>
       <c r="J34" s="297"/>
       <c r="K34" s="313"/>
       <c r="L34" s="306"/>
@@ -6008,11 +6001,11 @@
         <f>INVOICE!G33</f>
         <v>300</v>
       </c>
-      <c r="H35" s="314">
+      <c r="H35" s="306">
         <f>_xlfn.XLOOKUP(B35,データ!B:B,データ!F:F,"")</f>
         <v>40</v>
       </c>
-      <c r="I35" s="315"/>
+      <c r="I35" s="274"/>
       <c r="J35" s="52">
         <f>IFERROR(ROUNDUP(G35/H35,0),"")</f>
         <v>8</v>
@@ -6027,9 +6020,9 @@
         <v>16.16</v>
       </c>
       <c r="N35" s="18"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="118"/>
       <c r="R35" s="20"/>
       <c r="S35" s="18"/>
       <c r="T35" s="21"/>
@@ -6061,11 +6054,11 @@
         <f>INVOICE!G34</f>
         <v>300</v>
       </c>
-      <c r="H36" s="314">
+      <c r="H36" s="306">
         <f>_xlfn.XLOOKUP(B36,データ!B:B,データ!F:F,"")</f>
         <v>46</v>
       </c>
-      <c r="I36" s="315"/>
+      <c r="I36" s="274"/>
       <c r="J36" s="52">
         <f t="shared" ref="J36:J51" si="1">IFERROR(ROUNDUP(G36/H36,0),"")</f>
         <v>7</v>
@@ -6080,9 +6073,9 @@
         <v>15.39</v>
       </c>
       <c r="N36" s="18"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120"/>
+      <c r="O36" s="118"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="118"/>
       <c r="R36" s="20"/>
       <c r="S36" s="18"/>
       <c r="T36" s="21"/>
@@ -6114,11 +6107,11 @@
         <f>INVOICE!G35</f>
         <v>329</v>
       </c>
-      <c r="H37" s="314">
+      <c r="H37" s="306">
         <f>_xlfn.XLOOKUP(B37,データ!B:B,データ!F:F,"")</f>
         <v>42</v>
       </c>
-      <c r="I37" s="315"/>
+      <c r="I37" s="274"/>
       <c r="J37" s="52">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6133,9 +6126,9 @@
         <v>16.16</v>
       </c>
       <c r="N37" s="18"/>
-      <c r="O37" s="120"/>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="118"/>
       <c r="R37" s="20"/>
       <c r="S37" s="18"/>
       <c r="T37" s="21"/>
@@ -6167,11 +6160,11 @@
         <f>INVOICE!G36</f>
         <v>331</v>
       </c>
-      <c r="H38" s="314">
+      <c r="H38" s="306">
         <f>_xlfn.XLOOKUP(B38,データ!B:B,データ!F:F,"")</f>
         <v>42</v>
       </c>
-      <c r="I38" s="315"/>
+      <c r="I38" s="274"/>
       <c r="J38" s="52">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6186,9 +6179,9 @@
         <v>16.16</v>
       </c>
       <c r="N38" s="18"/>
-      <c r="O38" s="120"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
       <c r="R38" s="20"/>
       <c r="S38" s="18"/>
       <c r="T38" s="21"/>
@@ -6221,11 +6214,11 @@
         <f>INVOICE!G37</f>
         <v>640</v>
       </c>
-      <c r="H39" s="314">
+      <c r="H39" s="306">
         <f>_xlfn.XLOOKUP(B39,データ!B:B,データ!F:F,"")</f>
         <v>40</v>
       </c>
-      <c r="I39" s="315"/>
+      <c r="I39" s="274"/>
       <c r="J39" s="52">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6240,9 +6233,9 @@
         <v>22.32</v>
       </c>
       <c r="N39" s="18"/>
-      <c r="O39" s="120"/>
-      <c r="P39" s="120"/>
-      <c r="Q39" s="120"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
       <c r="R39" s="20"/>
       <c r="S39" s="18"/>
       <c r="T39" s="21"/>
@@ -6274,11 +6267,11 @@
         <f>INVOICE!G38</f>
         <v>300</v>
       </c>
-      <c r="H40" s="314">
+      <c r="H40" s="306">
         <f>_xlfn.XLOOKUP(B40,データ!B:B,データ!F:F,"")</f>
         <v>80</v>
       </c>
-      <c r="I40" s="315"/>
+      <c r="I40" s="274"/>
       <c r="J40" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6293,9 +6286,9 @@
         <v>13.08</v>
       </c>
       <c r="N40" s="18"/>
-      <c r="O40" s="120"/>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
+      <c r="O40" s="118"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="118"/>
       <c r="R40" s="20"/>
       <c r="S40" s="18"/>
       <c r="T40" s="21"/>
@@ -6327,11 +6320,11 @@
         <f>INVOICE!G39</f>
         <v>300</v>
       </c>
-      <c r="H41" s="314">
+      <c r="H41" s="306">
         <f>_xlfn.XLOOKUP(B41,データ!B:B,データ!F:F,"")</f>
         <v>80</v>
       </c>
-      <c r="I41" s="315"/>
+      <c r="I41" s="274"/>
       <c r="J41" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6346,9 +6339,9 @@
         <v>13.08</v>
       </c>
       <c r="N41" s="18"/>
-      <c r="O41" s="120"/>
-      <c r="P41" s="120"/>
-      <c r="Q41" s="120"/>
+      <c r="O41" s="118"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="118"/>
       <c r="R41" s="20"/>
       <c r="S41" s="18"/>
       <c r="T41" s="21"/>
@@ -6380,11 +6373,11 @@
         <f>INVOICE!G40</f>
         <v>300</v>
       </c>
-      <c r="H42" s="314">
+      <c r="H42" s="306">
         <f>_xlfn.XLOOKUP(B42,データ!B:B,データ!F:F,"")</f>
         <v>80</v>
       </c>
-      <c r="I42" s="315"/>
+      <c r="I42" s="274"/>
       <c r="J42" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6399,9 +6392,9 @@
         <v>13.08</v>
       </c>
       <c r="N42" s="18"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="120"/>
+      <c r="O42" s="118"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="118"/>
       <c r="R42" s="20"/>
       <c r="S42" s="18"/>
       <c r="T42" s="21"/>
@@ -6433,11 +6426,11 @@
         <f>INVOICE!G41</f>
         <v>300</v>
       </c>
-      <c r="H43" s="314">
+      <c r="H43" s="306">
         <f>_xlfn.XLOOKUP(B43,データ!B:B,データ!F:F,"")</f>
         <v>80</v>
       </c>
-      <c r="I43" s="315"/>
+      <c r="I43" s="274"/>
       <c r="J43" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6452,9 +6445,9 @@
         <v>13.08</v>
       </c>
       <c r="N43" s="18"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="118"/>
       <c r="R43" s="20"/>
       <c r="S43" s="18"/>
       <c r="T43" s="21"/>
@@ -6486,11 +6479,11 @@
         <f>INVOICE!G42</f>
         <v>300</v>
       </c>
-      <c r="H44" s="314">
+      <c r="H44" s="306">
         <f>_xlfn.XLOOKUP(B44,データ!B:B,データ!F:F,"")</f>
         <v>50</v>
       </c>
-      <c r="I44" s="315"/>
+      <c r="I44" s="274"/>
       <c r="J44" s="52">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6505,9 +6498,9 @@
         <v>14.620000000000001</v>
       </c>
       <c r="N44" s="18"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="120"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="118"/>
       <c r="R44" s="20"/>
       <c r="S44" s="18"/>
       <c r="T44" s="21"/>
@@ -6539,11 +6532,11 @@
         <f>INVOICE!G43</f>
         <v>300</v>
       </c>
-      <c r="H45" s="314">
+      <c r="H45" s="306">
         <f>_xlfn.XLOOKUP(B45,データ!B:B,データ!F:F,"")</f>
         <v>50</v>
       </c>
-      <c r="I45" s="315"/>
+      <c r="I45" s="274"/>
       <c r="J45" s="52">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6558,9 +6551,9 @@
         <v>14.620000000000001</v>
       </c>
       <c r="N45" s="18"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="120"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="118"/>
       <c r="R45" s="20"/>
       <c r="S45" s="18"/>
       <c r="T45" s="21"/>
@@ -6593,11 +6586,11 @@
         <f>INVOICE!G44</f>
         <v>323</v>
       </c>
-      <c r="H46" s="314">
+      <c r="H46" s="306">
         <f>_xlfn.XLOOKUP(B46,データ!B:B,データ!F:F,"")</f>
         <v>20</v>
       </c>
-      <c r="I46" s="315"/>
+      <c r="I46" s="274"/>
       <c r="J46" s="52">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6612,9 +6605,9 @@
         <v>23.09</v>
       </c>
       <c r="N46" s="18"/>
-      <c r="O46" s="120"/>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="120"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
       <c r="R46" s="20"/>
       <c r="S46" s="18"/>
       <c r="T46" s="21"/>
@@ -6646,11 +6639,11 @@
         <f>INVOICE!G45</f>
         <v>6</v>
       </c>
-      <c r="H47" s="314">
+      <c r="H47" s="306">
         <f>_xlfn.XLOOKUP(B47,データ!B:B,データ!F:F,"")</f>
         <v>20</v>
       </c>
-      <c r="I47" s="315"/>
+      <c r="I47" s="274"/>
       <c r="J47" s="52">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6665,9 +6658,9 @@
         <v>10.77</v>
       </c>
       <c r="N47" s="18"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="120"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
       <c r="R47" s="20"/>
       <c r="S47" s="18"/>
       <c r="T47" s="21"/>
@@ -6699,11 +6692,11 @@
         <f>INVOICE!G46</f>
         <v>13</v>
       </c>
-      <c r="H48" s="314">
+      <c r="H48" s="306">
         <f>_xlfn.XLOOKUP(B48,データ!B:B,データ!F:F,"")</f>
         <v>80</v>
       </c>
-      <c r="I48" s="315"/>
+      <c r="I48" s="274"/>
       <c r="J48" s="52">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6718,9 +6711,9 @@
         <v>10.77</v>
       </c>
       <c r="N48" s="18"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="120"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="118"/>
       <c r="R48" s="20"/>
       <c r="S48" s="18"/>
       <c r="T48" s="21"/>
@@ -6752,11 +6745,11 @@
         <f>INVOICE!G47</f>
         <v>300</v>
       </c>
-      <c r="H49" s="314">
+      <c r="H49" s="306">
         <f>_xlfn.XLOOKUP(B49,データ!B:B,データ!F:F,"")</f>
         <v>170</v>
       </c>
-      <c r="I49" s="315"/>
+      <c r="I49" s="274"/>
       <c r="J49" s="52">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6771,9 +6764,9 @@
         <v>11.54</v>
       </c>
       <c r="N49" s="18"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="120"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="118"/>
       <c r="R49" s="20"/>
       <c r="S49" s="18"/>
       <c r="T49" s="21"/>
@@ -6805,11 +6798,11 @@
         <f>INVOICE!G48</f>
         <v>320</v>
       </c>
-      <c r="H50" s="314">
+      <c r="H50" s="306">
         <f>_xlfn.XLOOKUP(B50,データ!B:B,データ!F:F,"")</f>
         <v>34</v>
       </c>
-      <c r="I50" s="315"/>
+      <c r="I50" s="274"/>
       <c r="J50" s="52">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6824,9 +6817,9 @@
         <v>17.7</v>
       </c>
       <c r="N50" s="18"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="120"/>
+      <c r="O50" s="118"/>
+      <c r="P50" s="118"/>
+      <c r="Q50" s="118"/>
       <c r="R50" s="20"/>
       <c r="S50" s="18"/>
       <c r="T50" s="21"/>
@@ -6858,11 +6851,11 @@
         <f>INVOICE!G49</f>
         <v>80</v>
       </c>
-      <c r="H51" s="314">
+      <c r="H51" s="306">
         <f>_xlfn.XLOOKUP(B51,データ!B:B,データ!F:F,"")</f>
         <v>22</v>
       </c>
-      <c r="I51" s="315"/>
+      <c r="I51" s="274"/>
       <c r="J51" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6877,9 +6870,9 @@
         <v>13.08</v>
       </c>
       <c r="N51" s="18"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="120"/>
+      <c r="O51" s="118"/>
+      <c r="P51" s="118"/>
+      <c r="Q51" s="118"/>
       <c r="R51" s="20"/>
       <c r="S51" s="18"/>
       <c r="T51" s="21"/>
@@ -6896,16 +6889,16 @@
       <c r="E52" s="56"/>
       <c r="F52" s="44"/>
       <c r="G52" s="52"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="118"/>
+      <c r="H52" s="177"/>
+      <c r="I52" s="178"/>
       <c r="J52" s="52"/>
       <c r="K52" s="55"/>
       <c r="L52" s="93"/>
       <c r="M52" s="54"/>
       <c r="N52" s="18"/>
-      <c r="O52" s="120"/>
-      <c r="P52" s="120"/>
-      <c r="Q52" s="120"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="118"/>
       <c r="R52" s="20"/>
       <c r="S52" s="18"/>
       <c r="T52" s="21"/>
@@ -6920,7 +6913,7 @@
       <c r="D53" s="261"/>
       <c r="E53" s="261"/>
       <c r="F53" s="262"/>
-      <c r="G53" s="316">
+      <c r="G53" s="314">
         <f>SUM(G35:G52)</f>
         <v>4742</v>
       </c>
@@ -6930,15 +6923,15 @@
         <f>SUM(J35:J52)</f>
         <v>110</v>
       </c>
-      <c r="K53" s="320">
+      <c r="K53" s="318">
         <f>SUM(K35:K52)</f>
         <v>0</v>
       </c>
-      <c r="L53" s="322">
+      <c r="L53" s="320">
         <f>SUM(L35:L52)</f>
         <v>0</v>
       </c>
-      <c r="M53" s="318">
+      <c r="M53" s="316">
         <f>SUM(M35:M52)</f>
         <v>254.70000000000002</v>
       </c>
@@ -6953,13 +6946,13 @@
       <c r="D54" s="264"/>
       <c r="E54" s="264"/>
       <c r="F54" s="265"/>
-      <c r="G54" s="317"/>
+      <c r="G54" s="315"/>
       <c r="H54" s="271"/>
       <c r="I54" s="265"/>
       <c r="J54" s="269"/>
-      <c r="K54" s="321"/>
-      <c r="L54" s="323"/>
-      <c r="M54" s="319"/>
+      <c r="K54" s="319"/>
+      <c r="L54" s="321"/>
+      <c r="M54" s="317"/>
       <c r="N54" s="310"/>
       <c r="O54" s="310"/>
       <c r="P54" s="310"/>
@@ -6971,7 +6964,7 @@
       </c>
       <c r="B55" s="67"/>
       <c r="O55" s="67"/>
-      <c r="T55" s="121"/>
+      <c r="T55" s="119"/>
     </row>
     <row r="56" spans="1:21" ht="18" customHeight="1">
       <c r="A56" s="266" t="s">
@@ -6989,7 +6982,7 @@
       <c r="H56" s="267"/>
       <c r="I56" s="267"/>
       <c r="J56" s="267"/>
-      <c r="N56" s="122"/>
+      <c r="N56" s="120"/>
       <c r="O56" s="67"/>
     </row>
     <row r="57" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -7281,6 +7274,7 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="G31:G34"/>
@@ -7335,7 +7329,6 @@
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B42:C42"/>
@@ -7369,44 +7362,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="44.25" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="127" t="s">
+      <c r="E2" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="126" t="s">
+      <c r="H2" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="126" t="s">
+      <c r="I2" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="126" t="s">
+      <c r="J2" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="126" t="s">
+      <c r="K2" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="126" t="s">
+      <c r="L2" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="128" t="s">
+      <c r="M2" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="129" t="s">
+      <c r="N2" s="127" t="s">
         <v>90</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -7414,49 +7407,49 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="125">
+      <c r="A3" s="123">
         <v>1</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="132">
+      <c r="D3" s="130">
         <v>6.55</v>
       </c>
-      <c r="E3" s="133">
+      <c r="E3" s="131">
         <v>412</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="132">
         <v>40</v>
       </c>
-      <c r="G3" s="135">
+      <c r="G3" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B3,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>300</v>
       </c>
-      <c r="H3" s="135">
+      <c r="H3" s="133">
         <f>ROUNDUP(G3/F3,0)</f>
         <v>8</v>
       </c>
-      <c r="I3" s="136">
+      <c r="I3" s="134">
         <f>G3*E3/1000</f>
         <v>123.6</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137">
+      <c r="J3" s="135"/>
+      <c r="K3" s="135">
         <f>H3*0.7</f>
         <v>5.6</v>
       </c>
-      <c r="L3" s="138">
+      <c r="L3" s="136">
         <f>K3+J3+I3</f>
         <v>129.19999999999999</v>
       </c>
-      <c r="M3" s="139">
+      <c r="M3" s="137">
         <v>18</v>
       </c>
-      <c r="N3" s="138" t="s">
+      <c r="N3" s="136" t="s">
         <v>93</v>
       </c>
       <c r="O3" s="3" t="s">
@@ -7464,49 +7457,49 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="125">
+      <c r="A4" s="123">
         <v>2</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="141">
+      <c r="D4" s="139">
         <v>8.67</v>
       </c>
-      <c r="E4" s="133">
+      <c r="E4" s="131">
         <v>412</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="132">
         <v>46</v>
       </c>
-      <c r="G4" s="135">
+      <c r="G4" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B4,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="135">
+      <c r="H4" s="133">
         <f t="shared" ref="H4:H6" si="0">ROUNDUP(G4/F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="136">
+      <c r="I4" s="134">
         <f t="shared" ref="I4:I48" si="1">G4*E4/1000</f>
         <v>0</v>
       </c>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137">
+      <c r="J4" s="135"/>
+      <c r="K4" s="135">
         <f t="shared" ref="K4:K53" si="2">H4*0.7</f>
         <v>0</v>
       </c>
-      <c r="L4" s="138">
+      <c r="L4" s="136">
         <f t="shared" ref="L4:L25" si="3">K4+J4+I4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="139">
+      <c r="M4" s="137">
         <v>18</v>
       </c>
-      <c r="N4" s="138" t="s">
+      <c r="N4" s="136" t="s">
         <v>93</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -7514,49 +7507,49 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="125">
+      <c r="A5" s="123">
         <v>3</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="141">
+      <c r="D5" s="139">
         <v>9.8800000000000008</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="131">
         <v>412</v>
       </c>
-      <c r="F5" s="134">
+      <c r="F5" s="132">
         <v>46</v>
       </c>
-      <c r="G5" s="135">
+      <c r="G5" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B5,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>300</v>
       </c>
-      <c r="H5" s="135">
+      <c r="H5" s="133">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I5" s="136">
+      <c r="I5" s="134">
         <f t="shared" si="1"/>
         <v>123.6</v>
       </c>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137">
+      <c r="J5" s="135"/>
+      <c r="K5" s="135">
         <f t="shared" si="2"/>
         <v>4.8999999999999995</v>
       </c>
-      <c r="L5" s="138">
+      <c r="L5" s="136">
         <f t="shared" si="3"/>
         <v>128.5</v>
       </c>
-      <c r="M5" s="139">
+      <c r="M5" s="137">
         <v>18</v>
       </c>
-      <c r="N5" s="138" t="s">
+      <c r="N5" s="136" t="s">
         <v>93</v>
       </c>
       <c r="O5" s="3" t="s">
@@ -7564,50 +7557,50 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="125">
+      <c r="A6" s="123">
         <f t="shared" ref="A6:A53" si="4">A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="142">
+      <c r="D6" s="140">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E6" s="133">
+      <c r="E6" s="131">
         <v>360</v>
       </c>
-      <c r="F6" s="134">
+      <c r="F6" s="132">
         <v>68</v>
       </c>
-      <c r="G6" s="135">
+      <c r="G6" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B6,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="135">
+      <c r="H6" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="136">
+      <c r="I6" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137">
+      <c r="J6" s="135"/>
+      <c r="K6" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="138">
+      <c r="L6" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="139">
+      <c r="M6" s="137">
         <v>18</v>
       </c>
-      <c r="N6" s="138" t="s">
+      <c r="N6" s="136" t="s">
         <v>93</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -7615,50 +7608,50 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="125">
+      <c r="A7" s="123">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="141">
+      <c r="D7" s="139">
         <v>7.8</v>
       </c>
-      <c r="E7" s="133">
+      <c r="E7" s="131">
         <v>706</v>
       </c>
-      <c r="F7" s="134">
+      <c r="F7" s="132">
         <v>34</v>
       </c>
-      <c r="G7" s="135">
+      <c r="G7" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B7,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="135">
+      <c r="H7" s="133">
         <f>ROUNDUP(G7/F7,0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="136">
+      <c r="I7" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137">
+      <c r="J7" s="135"/>
+      <c r="K7" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="138">
+      <c r="L7" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="139">
+      <c r="M7" s="137">
         <v>24</v>
       </c>
-      <c r="N7" s="138" t="s">
+      <c r="N7" s="136" t="s">
         <v>93</v>
       </c>
       <c r="O7" s="3" t="s">
@@ -7666,98 +7659,98 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="125">
+      <c r="A8" s="123">
         <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="144">
+      <c r="D8" s="142">
         <v>4.1900000000000004</v>
       </c>
-      <c r="E8" s="145">
+      <c r="E8" s="143">
         <v>156</v>
       </c>
-      <c r="F8" s="134">
+      <c r="F8" s="132">
         <v>80</v>
       </c>
-      <c r="G8" s="135">
+      <c r="G8" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B8,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="135">
+      <c r="H8" s="133">
         <f t="shared" ref="H8:H36" si="5">ROUNDUP(G8/F8,0)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="136">
+      <c r="I8" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137">
+      <c r="J8" s="135"/>
+      <c r="K8" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="138">
+      <c r="L8" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="139">
+      <c r="M8" s="137">
         <v>32</v>
       </c>
-      <c r="N8" s="138" t="s">
+      <c r="N8" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="125">
+      <c r="A9" s="123">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="146">
+      <c r="D9" s="144">
         <v>6.22</v>
       </c>
-      <c r="E9" s="145">
+      <c r="E9" s="143">
         <v>212</v>
       </c>
-      <c r="F9" s="134">
+      <c r="F9" s="132">
         <v>26</v>
       </c>
-      <c r="G9" s="135">
+      <c r="G9" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B9,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="135">
+      <c r="H9" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I9" s="136">
+      <c r="I9" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137">
+      <c r="J9" s="135"/>
+      <c r="K9" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="138">
+      <c r="L9" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="139">
+      <c r="M9" s="137">
         <v>32</v>
       </c>
-      <c r="N9" s="138" t="s">
+      <c r="N9" s="136" t="s">
         <v>93</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -7765,50 +7758,50 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="125">
+      <c r="A10" s="123">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="146">
+      <c r="D10" s="144">
         <v>5.84</v>
       </c>
-      <c r="E10" s="145">
+      <c r="E10" s="143">
         <v>212</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="132">
         <v>26</v>
       </c>
-      <c r="G10" s="135">
+      <c r="G10" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B10,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="135">
+      <c r="H10" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I10" s="136">
+      <c r="I10" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137">
+      <c r="J10" s="135"/>
+      <c r="K10" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="138">
+      <c r="L10" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="139">
+      <c r="M10" s="137">
         <v>32</v>
       </c>
-      <c r="N10" s="138" t="s">
+      <c r="N10" s="136" t="s">
         <v>93</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -7816,416 +7809,416 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="125"/>
-      <c r="B11" s="143" t="s">
+      <c r="A11" s="123"/>
+      <c r="B11" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="146">
+      <c r="D11" s="144">
         <v>6.84</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="131">
         <v>250</v>
       </c>
-      <c r="F11" s="134">
+      <c r="F11" s="132">
         <v>60</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B11,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="135">
+      <c r="H11" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I11" s="136">
+      <c r="I11" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137">
+      <c r="J11" s="135"/>
+      <c r="K11" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="138">
+      <c r="L11" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11" s="139">
+      <c r="M11" s="137">
         <v>19</v>
       </c>
-      <c r="N11" s="138" t="s">
+      <c r="N11" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="125"/>
-      <c r="B12" s="143" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="146">
+      <c r="D12" s="144">
         <v>6.84</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="131">
         <v>250</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="132">
         <v>60</v>
       </c>
-      <c r="G12" s="135">
+      <c r="G12" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B12,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="135">
+      <c r="H12" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I12" s="136">
+      <c r="I12" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137">
+      <c r="J12" s="135"/>
+      <c r="K12" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="138">
+      <c r="L12" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M12" s="139">
+      <c r="M12" s="137">
         <v>21</v>
       </c>
-      <c r="N12" s="138" t="s">
+      <c r="N12" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="125" t="e">
+      <c r="A13" s="123" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="148" t="s">
+      <c r="C13" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="149">
+      <c r="D13" s="147">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E13" s="133">
+      <c r="E13" s="131">
         <v>220</v>
       </c>
-      <c r="F13" s="134">
+      <c r="F13" s="132">
         <v>70</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B13,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="135">
+      <c r="H13" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I13" s="136">
+      <c r="I13" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137">
+      <c r="J13" s="135"/>
+      <c r="K13" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="138">
+      <c r="L13" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="139">
+      <c r="M13" s="137">
         <v>18</v>
       </c>
-      <c r="N13" s="138" t="s">
+      <c r="N13" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="125"/>
-      <c r="B14" s="143" t="s">
+      <c r="A14" s="123"/>
+      <c r="B14" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="148" t="s">
+      <c r="C14" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="149">
+      <c r="D14" s="147">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E14" s="133">
+      <c r="E14" s="131">
         <v>220</v>
       </c>
-      <c r="F14" s="134">
+      <c r="F14" s="132">
         <v>70</v>
       </c>
-      <c r="G14" s="135">
+      <c r="G14" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B14,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="135">
+      <c r="H14" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I14" s="136">
+      <c r="I14" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137">
+      <c r="J14" s="135"/>
+      <c r="K14" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="138">
+      <c r="L14" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M14" s="139">
+      <c r="M14" s="137">
         <v>19</v>
       </c>
-      <c r="N14" s="138" t="s">
+      <c r="N14" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="125"/>
-      <c r="B15" s="143" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="141" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="148" t="s">
+      <c r="C15" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="149">
+      <c r="D15" s="147">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="131">
         <v>220</v>
       </c>
-      <c r="F15" s="134">
+      <c r="F15" s="132">
         <v>70</v>
       </c>
-      <c r="G15" s="135">
+      <c r="G15" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B15,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="135">
+      <c r="H15" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I15" s="136">
+      <c r="I15" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137">
+      <c r="J15" s="135"/>
+      <c r="K15" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="138">
+      <c r="L15" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="139">
+      <c r="M15" s="137">
         <v>19</v>
       </c>
-      <c r="N15" s="138" t="s">
+      <c r="N15" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="125"/>
-      <c r="B16" s="143" t="s">
+      <c r="A16" s="123"/>
+      <c r="B16" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="149">
+      <c r="D16" s="147">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E16" s="133">
+      <c r="E16" s="131">
         <v>220</v>
       </c>
-      <c r="F16" s="134">
+      <c r="F16" s="132">
         <v>80</v>
       </c>
-      <c r="G16" s="135">
+      <c r="G16" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B16,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>13</v>
       </c>
-      <c r="H16" s="135">
+      <c r="H16" s="133">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I16" s="136">
+      <c r="I16" s="134">
         <f t="shared" si="1"/>
         <v>2.86</v>
       </c>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137">
+      <c r="J16" s="135"/>
+      <c r="K16" s="135">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="L16" s="138">
+      <c r="L16" s="136">
         <f t="shared" si="3"/>
         <v>3.5599999999999996</v>
       </c>
-      <c r="M16" s="139">
+      <c r="M16" s="137">
         <v>19</v>
       </c>
-      <c r="N16" s="138" t="s">
+      <c r="N16" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="125" t="e">
+      <c r="A17" s="123" t="e">
         <f>A13+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="149">
+      <c r="D17" s="147">
         <v>7.94</v>
       </c>
-      <c r="E17" s="133">
+      <c r="E17" s="131">
         <v>410</v>
       </c>
-      <c r="F17" s="134">
+      <c r="F17" s="132">
         <v>40</v>
       </c>
-      <c r="G17" s="135">
+      <c r="G17" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B17,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="135">
+      <c r="H17" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I17" s="136">
+      <c r="I17" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137">
+      <c r="J17" s="135"/>
+      <c r="K17" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="138">
+      <c r="L17" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M17" s="139">
+      <c r="M17" s="137">
         <v>24</v>
       </c>
-      <c r="N17" s="138" t="s">
+      <c r="N17" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="143" t="s">
+      <c r="A18" s="123"/>
+      <c r="B18" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="149">
+      <c r="D18" s="147">
         <v>7.94</v>
       </c>
-      <c r="E18" s="133">
+      <c r="E18" s="131">
         <v>410</v>
       </c>
-      <c r="F18" s="134">
+      <c r="F18" s="132">
         <v>40</v>
       </c>
-      <c r="G18" s="135">
+      <c r="G18" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B18,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="135">
+      <c r="H18" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I18" s="136">
+      <c r="I18" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137">
+      <c r="J18" s="135"/>
+      <c r="K18" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="138">
+      <c r="L18" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M18" s="139">
+      <c r="M18" s="137">
         <v>25</v>
       </c>
-      <c r="N18" s="138" t="s">
+      <c r="N18" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="125" t="e">
+      <c r="A19" s="123" t="e">
         <f t="shared" ref="A19" si="6">A17+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="150">
+      <c r="D19" s="148">
         <v>2.46</v>
       </c>
-      <c r="E19" s="133">
+      <c r="E19" s="131">
         <v>100</v>
       </c>
-      <c r="F19" s="134">
+      <c r="F19" s="132">
         <v>170</v>
       </c>
-      <c r="G19" s="135">
+      <c r="G19" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B19,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="135">
+      <c r="H19" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I19" s="136">
+      <c r="I19" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137">
+      <c r="J19" s="135"/>
+      <c r="K19" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L19" s="138">
+      <c r="L19" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M19" s="139">
+      <c r="M19" s="137">
         <v>26</v>
       </c>
-      <c r="N19" s="138" t="s">
+      <c r="N19" s="136" t="s">
         <v>93</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -8233,1568 +8226,1568 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="151" t="s">
+      <c r="A20" s="123"/>
+      <c r="B20" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="150">
+      <c r="D20" s="148">
         <v>7.94</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="150">
         <v>414</v>
       </c>
-      <c r="F20" s="134">
+      <c r="F20" s="132">
         <v>40</v>
       </c>
-      <c r="G20" s="135">
+      <c r="G20" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B20,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="135">
+      <c r="H20" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="136">
+      <c r="I20" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137">
+      <c r="J20" s="135"/>
+      <c r="K20" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="138">
+      <c r="L20" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M20" s="139">
+      <c r="M20" s="137">
         <v>28</v>
       </c>
-      <c r="N20" s="138" t="s">
+      <c r="N20" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="151" t="s">
+      <c r="A21" s="123"/>
+      <c r="B21" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="151" t="s">
+      <c r="C21" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="150">
+      <c r="D21" s="148">
         <v>7.94</v>
       </c>
-      <c r="E21" s="152">
+      <c r="E21" s="150">
         <v>414</v>
       </c>
-      <c r="F21" s="134">
+      <c r="F21" s="132">
         <v>40</v>
       </c>
-      <c r="G21" s="135">
+      <c r="G21" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B21,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>640</v>
       </c>
-      <c r="H21" s="135">
+      <c r="H21" s="133">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="I21" s="136">
+      <c r="I21" s="134">
         <f t="shared" si="1"/>
         <v>264.95999999999998</v>
       </c>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137">
+      <c r="J21" s="135"/>
+      <c r="K21" s="135">
         <f t="shared" si="2"/>
         <v>11.2</v>
       </c>
-      <c r="L21" s="138">
+      <c r="L21" s="136">
         <f t="shared" si="3"/>
         <v>276.15999999999997</v>
       </c>
-      <c r="M21" s="139">
+      <c r="M21" s="137">
         <v>28</v>
       </c>
-      <c r="N21" s="138" t="s">
+      <c r="N21" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="151" t="s">
+      <c r="A22" s="123"/>
+      <c r="B22" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="151" t="s">
+      <c r="C22" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="150">
+      <c r="D22" s="148">
         <v>11.04</v>
       </c>
-      <c r="E22" s="133">
+      <c r="E22" s="131">
         <v>470</v>
       </c>
-      <c r="F22" s="134">
+      <c r="F22" s="132">
         <v>42</v>
       </c>
-      <c r="G22" s="135">
+      <c r="G22" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B22,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>329</v>
       </c>
-      <c r="H22" s="135">
+      <c r="H22" s="133">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I22" s="136">
+      <c r="I22" s="134">
         <f t="shared" si="1"/>
         <v>154.63</v>
       </c>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137">
+      <c r="J22" s="135"/>
+      <c r="K22" s="135">
         <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
-      <c r="L22" s="138">
+      <c r="L22" s="136">
         <f t="shared" si="3"/>
         <v>160.22999999999999</v>
       </c>
-      <c r="M22" s="139">
+      <c r="M22" s="137">
         <v>30</v>
       </c>
-      <c r="N22" s="138" t="s">
+      <c r="N22" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="151" t="s">
+      <c r="A23" s="123"/>
+      <c r="B23" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="151" t="s">
+      <c r="C23" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="149">
+      <c r="D23" s="147">
         <v>11.04</v>
       </c>
-      <c r="E23" s="133">
+      <c r="E23" s="131">
         <v>470</v>
       </c>
-      <c r="F23" s="134">
+      <c r="F23" s="132">
         <v>42</v>
       </c>
-      <c r="G23" s="135">
+      <c r="G23" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B23,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="135">
+      <c r="H23" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I23" s="136">
+      <c r="I23" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137">
+      <c r="J23" s="135"/>
+      <c r="K23" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="138">
+      <c r="L23" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M23" s="139">
+      <c r="M23" s="137">
         <v>30</v>
       </c>
-      <c r="N23" s="138" t="s">
+      <c r="N23" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="151" t="s">
+      <c r="A24" s="123"/>
+      <c r="B24" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="151" t="s">
+      <c r="C24" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="150">
+      <c r="D24" s="148">
         <v>11.04</v>
       </c>
-      <c r="E24" s="133">
+      <c r="E24" s="131">
         <v>470</v>
       </c>
-      <c r="F24" s="134">
+      <c r="F24" s="132">
         <v>42</v>
       </c>
-      <c r="G24" s="135">
+      <c r="G24" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B24,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>331</v>
       </c>
-      <c r="H24" s="135">
+      <c r="H24" s="133">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I24" s="136">
+      <c r="I24" s="134">
         <f t="shared" si="1"/>
         <v>155.57</v>
       </c>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137">
+      <c r="J24" s="135"/>
+      <c r="K24" s="135">
         <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
-      <c r="L24" s="138">
+      <c r="L24" s="136">
         <f t="shared" si="3"/>
         <v>161.16999999999999</v>
       </c>
-      <c r="M24" s="139">
+      <c r="M24" s="137">
         <v>32</v>
       </c>
-      <c r="N24" s="138" t="s">
+      <c r="N24" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="151" t="s">
+      <c r="A25" s="123"/>
+      <c r="B25" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="151" t="s">
+      <c r="C25" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="147">
         <v>11.04</v>
       </c>
-      <c r="E25" s="133">
+      <c r="E25" s="131">
         <v>470</v>
       </c>
-      <c r="F25" s="134">
+      <c r="F25" s="132">
         <v>42</v>
       </c>
-      <c r="G25" s="135">
+      <c r="G25" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B25,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="135">
+      <c r="H25" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I25" s="136">
+      <c r="I25" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137">
+      <c r="J25" s="135"/>
+      <c r="K25" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="138">
+      <c r="L25" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M25" s="139">
+      <c r="M25" s="137">
         <v>32</v>
       </c>
-      <c r="N25" s="138" t="s">
+      <c r="N25" s="136" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="159" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="125" t="e">
+    <row r="26" spans="1:15" s="157" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="123" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B26" s="153" t="s">
+      <c r="B26" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="154" t="s">
+      <c r="C26" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="148">
         <v>2.81</v>
       </c>
-      <c r="E26" s="155">
+      <c r="E26" s="153">
         <v>90</v>
       </c>
-      <c r="F26" s="156">
+      <c r="F26" s="154">
         <v>170</v>
       </c>
-      <c r="G26" s="135">
+      <c r="G26" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B26,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>300</v>
       </c>
-      <c r="H26" s="135">
+      <c r="H26" s="133">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I26" s="136">
+      <c r="I26" s="134">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="J26" s="157">
+      <c r="J26" s="155">
         <f>G26*E26/1000</f>
         <v>27</v>
       </c>
-      <c r="K26" s="137">
+      <c r="K26" s="135">
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="L26" s="157">
+      <c r="L26" s="155">
         <f t="shared" ref="L26:L48" si="7">H26*0.7</f>
         <v>1.4</v>
       </c>
-      <c r="M26" s="158">
+      <c r="M26" s="156">
         <f>L26+K26+J26</f>
         <v>29.8</v>
       </c>
-      <c r="N26" s="158" t="s">
+      <c r="N26" s="156" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="125" t="e">
+      <c r="A27" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="160" t="s">
+      <c r="C27" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="144">
+      <c r="D27" s="142">
         <v>4.79</v>
       </c>
-      <c r="E27" s="145">
+      <c r="E27" s="143">
         <v>255</v>
       </c>
-      <c r="F27" s="134">
+      <c r="F27" s="132">
         <v>80</v>
       </c>
-      <c r="G27" s="135">
+      <c r="G27" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B27,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="135">
+      <c r="H27" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I27" s="136">
+      <c r="I27" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="137">
+      <c r="J27" s="135">
         <f>G27*E27/1000</f>
         <v>0</v>
       </c>
-      <c r="K27" s="137">
+      <c r="K27" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L27" s="137">
+      <c r="L27" s="135">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M27" s="138">
+      <c r="M27" s="136">
         <f>L27+K27+J27</f>
         <v>0</v>
       </c>
-      <c r="N27" s="138" t="s">
+      <c r="N27" s="136" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="165" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="125" t="e">
+    <row r="28" spans="1:15" s="163" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="154" t="s">
+      <c r="C28" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="144">
+      <c r="D28" s="142">
         <v>6.6</v>
       </c>
-      <c r="E28" s="161">
+      <c r="E28" s="159">
         <v>169</v>
       </c>
-      <c r="F28" s="162">
+      <c r="F28" s="160">
         <v>50</v>
       </c>
-      <c r="G28" s="135">
+      <c r="G28" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B28,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>300</v>
       </c>
-      <c r="H28" s="135">
+      <c r="H28" s="133">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I28" s="136">
+      <c r="I28" s="134">
         <f t="shared" si="1"/>
         <v>50.7</v>
       </c>
-      <c r="J28" s="163">
+      <c r="J28" s="161">
         <f t="shared" ref="J28:J31" si="8">G28*E28/1000</f>
         <v>50.7</v>
       </c>
-      <c r="K28" s="137">
+      <c r="K28" s="135">
         <f t="shared" si="2"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="L28" s="163">
+      <c r="L28" s="161">
         <f t="shared" si="7"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="M28" s="164">
+      <c r="M28" s="162">
         <f t="shared" ref="M28:M30" si="9">L28+K28+J28</f>
         <v>59.1</v>
       </c>
-      <c r="N28" s="164" t="s">
+      <c r="N28" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="125" t="e">
+      <c r="A29" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="154" t="s">
+      <c r="C29" s="152" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="144">
+      <c r="D29" s="142">
         <v>7.61</v>
       </c>
-      <c r="E29" s="145">
+      <c r="E29" s="143">
         <v>167</v>
       </c>
-      <c r="F29" s="134">
+      <c r="F29" s="132">
         <v>50</v>
       </c>
-      <c r="G29" s="135">
+      <c r="G29" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B29,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>300</v>
       </c>
-      <c r="H29" s="135">
+      <c r="H29" s="133">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I29" s="136">
+      <c r="I29" s="134">
         <f t="shared" si="1"/>
         <v>50.1</v>
       </c>
-      <c r="J29" s="137">
+      <c r="J29" s="135">
         <f>G29*E29/1000</f>
         <v>50.1</v>
       </c>
-      <c r="K29" s="137">
+      <c r="K29" s="135">
         <f t="shared" si="2"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="L29" s="137">
+      <c r="L29" s="135">
         <f t="shared" si="7"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="M29" s="138">
+      <c r="M29" s="136">
         <f t="shared" si="9"/>
         <v>58.5</v>
       </c>
-      <c r="N29" s="138" t="s">
+      <c r="N29" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="O29" s="166"/>
-    </row>
-    <row r="30" spans="1:15" s="159" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="125" t="e">
+      <c r="O29" s="164"/>
+    </row>
+    <row r="30" spans="1:15" s="157" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="168" t="s">
+      <c r="C30" s="166" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="144">
+      <c r="D30" s="142">
         <v>6.13</v>
       </c>
-      <c r="E30" s="155">
+      <c r="E30" s="153">
         <v>348</v>
       </c>
-      <c r="F30" s="156">
+      <c r="F30" s="154">
         <v>40</v>
       </c>
-      <c r="G30" s="135">
+      <c r="G30" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B30,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="135">
+      <c r="H30" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I30" s="136">
+      <c r="I30" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="157">
+      <c r="J30" s="155">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K30" s="137">
+      <c r="K30" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L30" s="157">
+      <c r="L30" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M30" s="158">
+      <c r="M30" s="156">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N30" s="158" t="s">
+      <c r="N30" s="156" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="125" t="e">
+      <c r="A31" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B31" s="167" t="s">
+      <c r="B31" s="165" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="168" t="s">
+      <c r="C31" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="141">
+      <c r="D31" s="139">
         <v>9.8699999999999992</v>
       </c>
-      <c r="E31" s="133">
+      <c r="E31" s="131">
         <v>545</v>
       </c>
-      <c r="F31" s="134">
+      <c r="F31" s="132">
         <v>46</v>
       </c>
-      <c r="G31" s="135">
+      <c r="G31" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B31,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="135">
+      <c r="H31" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I31" s="136">
+      <c r="I31" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J31" s="137">
+      <c r="J31" s="135">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K31" s="137">
+      <c r="K31" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L31" s="137">
+      <c r="L31" s="135">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M31" s="138">
+      <c r="M31" s="136">
         <f>L31+K31+J31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="138" t="s">
+      <c r="N31" s="136" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="165" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="125" t="e">
+    <row r="32" spans="1:15" s="163" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="170">
+      <c r="D32" s="168">
         <v>4.79</v>
       </c>
-      <c r="E32" s="171">
+      <c r="E32" s="169">
         <v>233</v>
       </c>
-      <c r="F32" s="162">
+      <c r="F32" s="160">
         <v>80</v>
       </c>
-      <c r="G32" s="135">
+      <c r="G32" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B32,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="135">
+      <c r="H32" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I32" s="136">
+      <c r="I32" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J32" s="163">
+      <c r="J32" s="161">
         <f>G32*E32/1000</f>
         <v>0</v>
       </c>
-      <c r="K32" s="137">
+      <c r="K32" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L32" s="163">
+      <c r="L32" s="161">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M32" s="164">
+      <c r="M32" s="162">
         <f t="shared" ref="M32:M48" si="10">L32+K32+J32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="164" t="s">
+      <c r="N32" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="125" t="e">
+      <c r="A33" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B33" s="151" t="s">
+      <c r="B33" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="151" t="s">
+      <c r="C33" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="172">
+      <c r="D33" s="170">
         <v>7.22</v>
       </c>
-      <c r="E33" s="152">
+      <c r="E33" s="150">
         <v>414</v>
       </c>
-      <c r="F33" s="134">
+      <c r="F33" s="132">
         <v>40</v>
       </c>
-      <c r="G33" s="135">
+      <c r="G33" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B33,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="135">
+      <c r="H33" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I33" s="136">
+      <c r="I33" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J33" s="137">
+      <c r="J33" s="135">
         <f>G33*E33/1000-0.01</f>
         <v>-0.01</v>
       </c>
-      <c r="K33" s="137">
+      <c r="K33" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L33" s="137">
+      <c r="L33" s="135">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M33" s="138">
+      <c r="M33" s="136">
         <f t="shared" si="10"/>
         <v>-0.01</v>
       </c>
-      <c r="N33" s="138" t="s">
+      <c r="N33" s="136" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="125" t="e">
+      <c r="A34" s="123" t="e">
         <f>A33+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="160" t="s">
+      <c r="C34" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="150">
+      <c r="D34" s="148">
         <v>5.01</v>
       </c>
-      <c r="E34" s="171">
+      <c r="E34" s="169">
         <v>233</v>
       </c>
-      <c r="F34" s="162">
+      <c r="F34" s="160">
         <v>80</v>
       </c>
-      <c r="G34" s="135">
+      <c r="G34" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B34,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>300</v>
       </c>
-      <c r="H34" s="135">
+      <c r="H34" s="133">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I34" s="136">
+      <c r="I34" s="134">
         <f t="shared" si="1"/>
         <v>69.900000000000006</v>
       </c>
-      <c r="J34" s="163">
+      <c r="J34" s="161">
         <f>G34*E34/1000</f>
         <v>69.900000000000006</v>
       </c>
-      <c r="K34" s="137">
+      <c r="K34" s="135">
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
-      <c r="L34" s="163">
+      <c r="L34" s="161">
         <f t="shared" si="7"/>
         <v>2.8</v>
       </c>
-      <c r="M34" s="164">
+      <c r="M34" s="162">
         <f t="shared" si="10"/>
         <v>75.5</v>
       </c>
-      <c r="N34" s="164" t="s">
+      <c r="N34" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="125" t="e">
+      <c r="A35" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="160" t="s">
+      <c r="C35" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="150">
+      <c r="D35" s="148">
         <v>5.01</v>
       </c>
-      <c r="E35" s="171">
+      <c r="E35" s="169">
         <v>233</v>
       </c>
-      <c r="F35" s="162">
+      <c r="F35" s="160">
         <v>80</v>
       </c>
-      <c r="G35" s="135">
+      <c r="G35" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B35,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>300</v>
       </c>
-      <c r="H35" s="135">
+      <c r="H35" s="133">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I35" s="136">
+      <c r="I35" s="134">
         <f t="shared" si="1"/>
         <v>69.900000000000006</v>
       </c>
-      <c r="J35" s="163">
+      <c r="J35" s="161">
         <f>G35*E35/1000</f>
         <v>69.900000000000006</v>
       </c>
-      <c r="K35" s="137">
+      <c r="K35" s="135">
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
-      <c r="L35" s="163">
+      <c r="L35" s="161">
         <f t="shared" si="7"/>
         <v>2.8</v>
       </c>
-      <c r="M35" s="164">
+      <c r="M35" s="162">
         <f t="shared" si="10"/>
         <v>75.5</v>
       </c>
-      <c r="N35" s="164" t="s">
+      <c r="N35" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="125" t="e">
+      <c r="A36" s="123" t="e">
         <f>A35+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="160" t="s">
+      <c r="C36" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="150">
+      <c r="D36" s="148">
         <v>4.59</v>
       </c>
-      <c r="E36" s="171">
+      <c r="E36" s="169">
         <v>233</v>
       </c>
-      <c r="F36" s="162">
+      <c r="F36" s="160">
         <v>80</v>
       </c>
-      <c r="G36" s="135">
+      <c r="G36" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B36,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>300</v>
       </c>
-      <c r="H36" s="135">
+      <c r="H36" s="133">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I36" s="136">
+      <c r="I36" s="134">
         <f t="shared" si="1"/>
         <v>69.900000000000006</v>
       </c>
-      <c r="J36" s="163">
+      <c r="J36" s="161">
         <f>G36*E36/1000</f>
         <v>69.900000000000006</v>
       </c>
-      <c r="K36" s="137">
+      <c r="K36" s="135">
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
-      <c r="L36" s="163">
+      <c r="L36" s="161">
         <f t="shared" si="7"/>
         <v>2.8</v>
       </c>
-      <c r="M36" s="164">
+      <c r="M36" s="162">
         <f t="shared" si="10"/>
         <v>75.5</v>
       </c>
-      <c r="N36" s="164" t="s">
+      <c r="N36" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="125" t="e">
+      <c r="A37" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B37" s="169" t="s">
+      <c r="B37" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="160" t="s">
+      <c r="C37" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="150">
+      <c r="D37" s="148">
         <v>4.59</v>
       </c>
-      <c r="E37" s="171">
+      <c r="E37" s="169">
         <v>233</v>
       </c>
-      <c r="F37" s="162">
+      <c r="F37" s="160">
         <v>80</v>
       </c>
-      <c r="G37" s="135">
+      <c r="G37" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B37,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>300</v>
       </c>
-      <c r="H37" s="135">
+      <c r="H37" s="133">
         <f>ROUNDUP(G37/F37,0)</f>
         <v>4</v>
       </c>
-      <c r="I37" s="136">
+      <c r="I37" s="134">
         <f t="shared" si="1"/>
         <v>69.900000000000006</v>
       </c>
-      <c r="J37" s="163">
+      <c r="J37" s="161">
         <f>G37*E37/1000</f>
         <v>69.900000000000006</v>
       </c>
-      <c r="K37" s="137">
+      <c r="K37" s="135">
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
-      <c r="L37" s="163">
+      <c r="L37" s="161">
         <f t="shared" si="7"/>
         <v>2.8</v>
       </c>
-      <c r="M37" s="164">
+      <c r="M37" s="162">
         <f t="shared" si="10"/>
         <v>75.5</v>
       </c>
-      <c r="N37" s="164" t="s">
+      <c r="N37" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="125" t="e">
+      <c r="A38" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="169" t="s">
+      <c r="C38" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="149">
+      <c r="D38" s="147">
         <v>15.07</v>
       </c>
-      <c r="E38" s="173">
+      <c r="E38" s="171">
         <v>909</v>
       </c>
-      <c r="F38" s="162">
+      <c r="F38" s="160">
         <v>22</v>
       </c>
-      <c r="G38" s="135">
+      <c r="G38" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B38,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>80</v>
       </c>
-      <c r="H38" s="135">
+      <c r="H38" s="133">
         <f t="shared" ref="H38:H48" si="11">ROUNDUP(G38/F38,0)</f>
         <v>4</v>
       </c>
-      <c r="I38" s="136">
+      <c r="I38" s="134">
         <f t="shared" si="1"/>
         <v>72.72</v>
       </c>
-      <c r="J38" s="163">
+      <c r="J38" s="161">
         <f t="shared" ref="J38:J48" si="12">G38*E38/1000</f>
         <v>72.72</v>
       </c>
-      <c r="K38" s="137">
+      <c r="K38" s="135">
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
-      <c r="L38" s="163">
+      <c r="L38" s="161">
         <f t="shared" si="7"/>
         <v>2.8</v>
       </c>
-      <c r="M38" s="164">
+      <c r="M38" s="162">
         <f t="shared" si="10"/>
         <v>78.319999999999993</v>
       </c>
-      <c r="N38" s="164" t="s">
+      <c r="N38" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="125" t="e">
+      <c r="A39" s="123" t="e">
         <f>A38+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B39" s="169" t="s">
+      <c r="B39" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="C39" s="169" t="s">
+      <c r="C39" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="149">
+      <c r="D39" s="147">
         <v>17.38</v>
       </c>
-      <c r="E39" s="173">
+      <c r="E39" s="171">
         <v>1105</v>
       </c>
-      <c r="F39" s="162">
+      <c r="F39" s="160">
         <v>20</v>
       </c>
-      <c r="G39" s="135">
+      <c r="G39" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B39,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="135">
+      <c r="H39" s="133">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I39" s="136">
+      <c r="I39" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="163">
+      <c r="J39" s="161">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K39" s="137">
+      <c r="K39" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L39" s="163">
+      <c r="L39" s="161">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M39" s="164">
+      <c r="M39" s="162">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N39" s="164" t="s">
+      <c r="N39" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="125" t="e">
+      <c r="A40" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="151" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="160" t="s">
+      <c r="C40" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="149">
+      <c r="D40" s="147">
         <v>10.14</v>
       </c>
-      <c r="E40" s="152">
+      <c r="E40" s="150">
         <v>322</v>
       </c>
-      <c r="F40" s="162">
+      <c r="F40" s="160">
         <v>36</v>
       </c>
-      <c r="G40" s="135">
+      <c r="G40" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B40,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="135">
+      <c r="H40" s="133">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I40" s="136">
+      <c r="I40" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="163">
+      <c r="J40" s="161">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K40" s="137">
+      <c r="K40" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L40" s="163">
+      <c r="L40" s="161">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M40" s="164">
+      <c r="M40" s="162">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N40" s="164" t="s">
+      <c r="N40" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="125" t="e">
+      <c r="A41" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B41" s="169" t="s">
+      <c r="B41" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="174" t="s">
+      <c r="C41" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="149">
+      <c r="D41" s="147">
         <v>10.14</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="150">
         <v>322</v>
       </c>
-      <c r="F41" s="162">
+      <c r="F41" s="160">
         <v>36</v>
       </c>
-      <c r="G41" s="135">
+      <c r="G41" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B41,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="135">
+      <c r="H41" s="133">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I41" s="136">
+      <c r="I41" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J41" s="163">
+      <c r="J41" s="161">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K41" s="137">
+      <c r="K41" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L41" s="163">
+      <c r="L41" s="161">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M41" s="164">
+      <c r="M41" s="162">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N41" s="164" t="s">
+      <c r="N41" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="125" t="e">
+      <c r="A42" s="123" t="e">
         <f>A41+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="167" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="140" t="s">
+      <c r="C42" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="147">
         <v>10.48</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="150">
         <v>638</v>
       </c>
-      <c r="F42" s="162">
+      <c r="F42" s="160">
         <v>34</v>
       </c>
-      <c r="G42" s="135">
+      <c r="G42" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B42,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="135">
+      <c r="H42" s="133">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I42" s="136">
+      <c r="I42" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="163">
+      <c r="J42" s="161">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K42" s="137">
+      <c r="K42" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L42" s="163">
+      <c r="L42" s="161">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M42" s="164">
+      <c r="M42" s="162">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N42" s="164" t="s">
+      <c r="N42" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="125" t="e">
+      <c r="A43" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B43" s="169" t="s">
+      <c r="B43" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="140" t="s">
+      <c r="C43" s="138" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="149">
+      <c r="D43" s="147">
         <v>10.48</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="150">
         <v>638</v>
       </c>
-      <c r="F43" s="162">
+      <c r="F43" s="160">
         <v>34</v>
       </c>
-      <c r="G43" s="135">
+      <c r="G43" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B43,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>320</v>
       </c>
-      <c r="H43" s="135">
+      <c r="H43" s="133">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="I43" s="136">
+      <c r="I43" s="134">
         <f t="shared" si="1"/>
         <v>204.16</v>
       </c>
-      <c r="J43" s="163">
+      <c r="J43" s="161">
         <f t="shared" si="12"/>
         <v>204.16</v>
       </c>
-      <c r="K43" s="137">
+      <c r="K43" s="135">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L43" s="163">
+      <c r="L43" s="161">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="M43" s="164">
+      <c r="M43" s="162">
         <f t="shared" si="10"/>
         <v>218.16</v>
       </c>
-      <c r="N43" s="164" t="s">
+      <c r="N43" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75">
-      <c r="A44" s="125" t="e">
+      <c r="A44" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B44" s="169" t="s">
+      <c r="B44" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="175" t="s">
+      <c r="C44" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="149">
+      <c r="D44" s="147">
         <v>13.28</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="150">
         <v>379</v>
       </c>
-      <c r="F44" s="162">
+      <c r="F44" s="160">
         <v>20</v>
       </c>
-      <c r="G44" s="135">
+      <c r="G44" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B44,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>323</v>
       </c>
-      <c r="H44" s="135">
+      <c r="H44" s="133">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="I44" s="136">
+      <c r="I44" s="134">
         <f t="shared" si="1"/>
         <v>122.417</v>
       </c>
-      <c r="J44" s="163">
+      <c r="J44" s="161">
         <f t="shared" si="12"/>
         <v>122.417</v>
       </c>
-      <c r="K44" s="137">
+      <c r="K44" s="135">
         <f t="shared" si="2"/>
         <v>11.899999999999999</v>
       </c>
-      <c r="L44" s="163">
+      <c r="L44" s="161">
         <f t="shared" si="7"/>
         <v>11.899999999999999</v>
       </c>
-      <c r="M44" s="164">
+      <c r="M44" s="162">
         <f t="shared" si="10"/>
         <v>146.21699999999998</v>
       </c>
-      <c r="N44" s="164" t="s">
+      <c r="N44" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75">
-      <c r="A45" s="125" t="e">
+      <c r="A45" s="123" t="e">
         <f>A44+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="175" t="s">
+      <c r="C45" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="149">
+      <c r="D45" s="147">
         <v>12.36</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="150">
         <v>372</v>
       </c>
-      <c r="F45" s="162">
+      <c r="F45" s="160">
         <v>20</v>
       </c>
-      <c r="G45" s="135">
+      <c r="G45" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B45,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>6</v>
       </c>
-      <c r="H45" s="135">
+      <c r="H45" s="133">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="I45" s="136">
+      <c r="I45" s="134">
         <f t="shared" si="1"/>
         <v>2.2320000000000002</v>
       </c>
-      <c r="J45" s="163">
+      <c r="J45" s="161">
         <f t="shared" si="12"/>
         <v>2.2320000000000002</v>
       </c>
-      <c r="K45" s="137">
+      <c r="K45" s="135">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="L45" s="163">
+      <c r="L45" s="161">
         <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
-      <c r="M45" s="164">
+      <c r="M45" s="162">
         <f t="shared" si="10"/>
         <v>3.6320000000000001</v>
       </c>
-      <c r="N45" s="164" t="s">
+      <c r="N45" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75">
-      <c r="A46" s="125" t="e">
+      <c r="A46" s="123" t="e">
         <f t="shared" ref="A46" si="13">A45+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B46" s="176" t="s">
+      <c r="B46" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="177" t="s">
+      <c r="C46" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="149">
+      <c r="D46" s="147">
         <v>11.04</v>
       </c>
-      <c r="E46" s="133">
+      <c r="E46" s="131">
         <v>466</v>
       </c>
-      <c r="F46" s="162">
+      <c r="F46" s="160">
         <v>42</v>
       </c>
-      <c r="G46" s="135">
+      <c r="G46" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B46,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="135">
+      <c r="H46" s="133">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I46" s="136">
+      <c r="I46" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J46" s="163">
+      <c r="J46" s="161">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K46" s="137">
+      <c r="K46" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L46" s="163">
+      <c r="L46" s="161">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M46" s="164">
+      <c r="M46" s="162">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N46" s="164" t="s">
+      <c r="N46" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75">
-      <c r="A47" s="125" t="e">
+      <c r="A47" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B47" s="176" t="s">
+      <c r="B47" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="177" t="s">
+      <c r="C47" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="149">
+      <c r="D47" s="147">
         <v>11.04</v>
       </c>
-      <c r="E47" s="133">
+      <c r="E47" s="131">
         <v>466</v>
       </c>
-      <c r="F47" s="162">
+      <c r="F47" s="160">
         <v>42</v>
       </c>
-      <c r="G47" s="135">
+      <c r="G47" s="133">
         <f>_xlfn.IFNA(VLOOKUP(データ!B47,[1]INVOICE!$B$33:$K$50,6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="135">
+      <c r="H47" s="133">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I47" s="136">
+      <c r="I47" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J47" s="163">
+      <c r="J47" s="161">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K47" s="137">
+      <c r="K47" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47" s="163">
+      <c r="L47" s="161">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M47" s="164">
+      <c r="M47" s="162">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N47" s="164" t="s">
+      <c r="N47" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="125" t="e">
+      <c r="A48" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B48" s="151"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="135" t="e">
+      <c r="B48" s="149"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="133" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="136">
+      <c r="I48" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J48" s="163">
+      <c r="J48" s="161">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K48" s="137" t="e">
+      <c r="K48" s="135" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="163" t="e">
+      <c r="L48" s="161" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M48" s="164" t="e">
+      <c r="M48" s="162" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N48" s="164" t="s">
+      <c r="N48" s="162" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="125" t="e">
+      <c r="A49" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B49" s="178"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="178"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="178"/>
-      <c r="I49" s="178"/>
-      <c r="J49" s="178"/>
-      <c r="K49" s="137">
+      <c r="B49" s="176"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="176"/>
+      <c r="F49" s="176"/>
+      <c r="G49" s="176"/>
+      <c r="H49" s="176"/>
+      <c r="I49" s="176"/>
+      <c r="J49" s="176"/>
+      <c r="K49" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L49" s="178"/>
-      <c r="M49" s="178"/>
-      <c r="N49" s="178"/>
+      <c r="L49" s="176"/>
+      <c r="M49" s="176"/>
+      <c r="N49" s="176"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="125" t="e">
+      <c r="A50" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B50" s="178"/>
-      <c r="C50" s="178"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="178"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="178"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="178"/>
-      <c r="K50" s="137">
+      <c r="B50" s="176"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="176"/>
+      <c r="K50" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L50" s="178"/>
-      <c r="M50" s="178"/>
-      <c r="N50" s="178"/>
+      <c r="L50" s="176"/>
+      <c r="M50" s="176"/>
+      <c r="N50" s="176"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="125" t="e">
+      <c r="A51" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B51" s="178"/>
-      <c r="C51" s="178"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="178"/>
-      <c r="G51" s="178"/>
-      <c r="H51" s="178"/>
-      <c r="I51" s="178"/>
-      <c r="J51" s="178"/>
-      <c r="K51" s="137">
+      <c r="B51" s="176"/>
+      <c r="C51" s="176"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="176"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="176"/>
+      <c r="H51" s="176"/>
+      <c r="I51" s="176"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L51" s="178"/>
-      <c r="M51" s="178"/>
-      <c r="N51" s="178"/>
+      <c r="L51" s="176"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="176"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="125" t="e">
+      <c r="A52" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B52" s="178"/>
-      <c r="C52" s="178"/>
-      <c r="D52" s="151"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="178"/>
-      <c r="K52" s="137">
+      <c r="B52" s="176"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="149"/>
+      <c r="E52" s="176"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="176"/>
+      <c r="H52" s="176"/>
+      <c r="I52" s="176"/>
+      <c r="J52" s="176"/>
+      <c r="K52" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L52" s="178"/>
-      <c r="M52" s="178"/>
-      <c r="N52" s="178"/>
+      <c r="L52" s="176"/>
+      <c r="M52" s="176"/>
+      <c r="N52" s="176"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="125" t="e">
+      <c r="A53" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="B53" s="178"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="151"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="178"/>
-      <c r="K53" s="137">
+      <c r="B53" s="176"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="176"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="176"/>
+      <c r="J53" s="176"/>
+      <c r="K53" s="135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L53" s="178"/>
-      <c r="M53" s="178"/>
-      <c r="N53" s="178"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="176"/>
+      <c r="N53" s="176"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
